--- a/day05/data/주민등록인구.xlsx
+++ b/day05/data/주민등록인구.xlsx
@@ -193,13 +193,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -355,12 +361,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -395,9 +401,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -713,35 +716,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="15" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="15" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="15" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="14" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="14" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="14" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="14" width="25.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -777,7 +780,7 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5" t="s">
@@ -829,7 +832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="5" t="s">
@@ -905,7 +908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -985,7 +988,7 @@
         <v>1743696</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
         <v>32</v>
@@ -1063,7 +1066,7 @@
         <v>28764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
         <v>33</v>
@@ -1141,7 +1144,7 @@
         <v>25920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="11"/>
       <c r="B7" s="8" t="s">
         <v>34</v>
@@ -1219,7 +1222,7 @@
         <v>39747</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>35</v>
@@ -1297,7 +1300,7 @@
         <v>49462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="11"/>
       <c r="B9" s="8" t="s">
         <v>36</v>
@@ -1375,7 +1378,7 @@
         <v>56819</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="11"/>
       <c r="B10" s="8" t="s">
         <v>37</v>
@@ -1453,7 +1456,7 @@
         <v>67030</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="11"/>
       <c r="B11" s="8" t="s">
         <v>38</v>
@@ -1531,7 +1534,7 @@
         <v>78955</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="11"/>
       <c r="B12" s="8" t="s">
         <v>39</v>
@@ -1609,7 +1612,7 @@
         <v>80414</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="11"/>
       <c r="B13" s="8" t="s">
         <v>40</v>
@@ -1687,7 +1690,7 @@
         <v>68617</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="11"/>
       <c r="B14" s="8" t="s">
         <v>41</v>
@@ -1765,7 +1768,7 @@
         <v>70436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
       <c r="A15" s="11"/>
       <c r="B15" s="8" t="s">
         <v>42</v>
@@ -1843,7 +1846,7 @@
         <v>96422</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="11"/>
       <c r="B16" s="8" t="s">
         <v>43</v>
@@ -1921,7 +1924,7 @@
         <v>93817</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
       <c r="A17" s="11"/>
       <c r="B17" s="8" t="s">
         <v>44</v>
@@ -1999,7 +2002,7 @@
         <v>58113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
       <c r="A18" s="11"/>
       <c r="B18" s="8" t="s">
         <v>45</v>
@@ -2077,7 +2080,7 @@
         <v>57895</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
       <c r="A19" s="11"/>
       <c r="B19" s="8" t="s">
         <v>46</v>
@@ -2155,7 +2158,7 @@
         <v>76317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
       <c r="A20" s="11"/>
       <c r="B20" s="8" t="s">
         <v>47</v>
@@ -2233,7 +2236,7 @@
         <v>102096</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
       <c r="A21" s="11"/>
       <c r="B21" s="8" t="s">
         <v>48</v>
@@ -2311,7 +2314,7 @@
         <v>79984</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
       <c r="A22" s="11"/>
       <c r="B22" s="8" t="s">
         <v>49</v>
@@ -2389,7 +2392,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
       <c r="A23" s="11"/>
       <c r="B23" s="8" t="s">
         <v>50</v>
@@ -2467,7 +2470,7 @@
         <v>67509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
       <c r="A24" s="11"/>
       <c r="B24" s="8" t="s">
         <v>51</v>
@@ -2545,7 +2548,7 @@
         <v>70474</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21">
       <c r="A25" s="11"/>
       <c r="B25" s="8" t="s">
         <v>52</v>
@@ -2623,7 +2626,7 @@
         <v>85418</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
       <c r="A26" s="11"/>
       <c r="B26" s="8" t="s">
         <v>53</v>
@@ -2701,7 +2704,7 @@
         <v>65661</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21">
       <c r="A27" s="11"/>
       <c r="B27" s="8" t="s">
         <v>54</v>
@@ -2779,7 +2782,7 @@
         <v>86606</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21">
       <c r="A28" s="11"/>
       <c r="B28" s="8" t="s">
         <v>55</v>
@@ -2857,7 +2860,7 @@
         <v>108894</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21.75">
       <c r="A29" s="12"/>
       <c r="B29" s="13" t="s">
         <v>56</v>
